--- a/Measures_To_Prevent_Attacks_on_Web_Servers.xlsx
+++ b/Measures_To_Prevent_Attacks_on_Web_Servers.xlsx
@@ -399,7 +399,7 @@
   <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
